--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/科研/神经网络/生成网络/2022秋季新专题讲解/EBM JEM/Diffusion Model/Surveys/Survey结构调整/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E9B608-8A6F-A347-AB4E-C731A348E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC85BF-8370-8F41-9E31-5850EE0A4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1840" windowWidth="28240" windowHeight="17440" xr2:uid="{1888B053-E304-3743-B8B6-CEAE6A4CB620}"/>
+    <workbookView xWindow="7020" yWindow="920" windowWidth="28240" windowHeight="19960" activeTab="1" xr2:uid="{1888B053-E304-3743-B8B6-CEAE6A4CB620}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conditioning diffusion model" sheetId="1" r:id="rId1"/>
+    <sheet name="Exploiting pre-trained model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,9 +35,461 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Retraining</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Segmentations &amp; Masks</t>
+  </si>
+  <si>
+    <t>Guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PITI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual feature map to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch-Guided DM</t>
+  </si>
+  <si>
+    <t>Sketch to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2i-adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniControlNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructPix2Pix</t>
+  </si>
+  <si>
+    <t>MoEController</t>
+  </si>
+  <si>
+    <t>Instruct-based editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOFIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emu Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogPaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inst-Inpaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructAny2Pix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PbE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectStitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreaminpainter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anydoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair-Diffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIR-Net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DreanBooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unitune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayerDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null-Text Inversion</t>
+  </si>
+  <si>
+    <t>EDICT</t>
+  </si>
+  <si>
+    <t>Negative Inversion</t>
+  </si>
+  <si>
+    <t>Style Diffusion</t>
+  </si>
+  <si>
+    <t>Direct Inversion</t>
+  </si>
+  <si>
+    <t>TF-ICON</t>
+  </si>
+  <si>
+    <t>DDPM Inversion</t>
+  </si>
+  <si>
+    <t>Cycle Diffusion</t>
+  </si>
+  <si>
+    <t>Prompt Tuning Inversion</t>
+  </si>
+  <si>
+    <t>KV-Inversion</t>
+  </si>
+  <si>
+    <t>StyleDiffusion</t>
+  </si>
+  <si>
+    <t>LEDITS++</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>EMILIE</t>
+  </si>
+  <si>
+    <t>Fixed-point inversion</t>
+  </si>
+  <si>
+    <t>AIDI</t>
+  </si>
+  <si>
+    <t>Diffedit</t>
+  </si>
+  <si>
+    <t>Masactrl</t>
+  </si>
+  <si>
+    <t>Object-Shape Variation</t>
+  </si>
+  <si>
+    <t>Region-Aware Diffusion</t>
+  </si>
+  <si>
+    <t>Textual Inversion</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>InST</t>
+  </si>
+  <si>
+    <t>PRedItOR</t>
+  </si>
+  <si>
+    <t>DiffusionDisentanglement</t>
+  </si>
+  <si>
+    <t>Prompt-to-Prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plug-and-Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pix2Pix-Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rediffuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragdiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout control guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragondiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeDoM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classifier-free guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagen Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image compositing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-based editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-based inpainting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inversion work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag-Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latent manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterative editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null-Text Guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDIELR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">face age editing </t>
+  </si>
+  <si>
+    <t>optionally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE-Drag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unified framework for Instruction-based vision tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实ins p2p本身就提出了一种多条件的guidance方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruct-based object removing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image editing with visual instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(optionally)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attention manipulation (指的是对attention map做一些training free的调整)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedding optimization(指的是对一个图像或者物体，通过优化的方式获取它的text embedding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,6 +502,48 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,8 +570,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,11 +905,2271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD026EF-406A-AA42-84F0-4D22E7F53699}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDD8D6F-B891-B745-9B26-F57FF5B8522B}">
+  <dimension ref="A1:M85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/科研/神经网络/生成网络/2022秋季新专题讲解/EBM JEM/Diffusion Model/Surveys/Survey结构调整/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/科研/神经网络/生成网络/2022秋季新专题讲解/EBM JEM/Diffusion Model/Surveys/Github Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC85BF-8370-8F41-9E31-5850EE0A4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA4342-8109-D241-97AC-BAC29739FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="920" windowWidth="28240" windowHeight="19960" activeTab="1" xr2:uid="{1888B053-E304-3743-B8B6-CEAE6A4CB620}"/>
+    <workbookView xWindow="7600" yWindow="860" windowWidth="28240" windowHeight="19960" xr2:uid="{1888B053-E304-3743-B8B6-CEAE6A4CB620}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditioning diffusion model" sheetId="1" r:id="rId1"/>
@@ -36,452 +36,569 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>Model</t>
   </si>
   <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Retraining</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Segmentations &amp; Masks</t>
+  </si>
+  <si>
+    <t>Guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PITI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual feature map to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch-Guided DM</t>
+  </si>
+  <si>
+    <t>Sketch to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2i-adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniControlNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructPix2Pix</t>
+  </si>
+  <si>
+    <t>MoEController</t>
+  </si>
+  <si>
+    <t>Instruct-based editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOFIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emu Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogPaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inst-Inpaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructAny2Pix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PbE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectStitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreaminpainter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anydoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair-Diffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIR-Net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DreanBooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unitune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayerDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomDiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null-Text Inversion</t>
+  </si>
+  <si>
+    <t>EDICT</t>
+  </si>
+  <si>
+    <t>Negative Inversion</t>
+  </si>
+  <si>
+    <t>Style Diffusion</t>
+  </si>
+  <si>
+    <t>Direct Inversion</t>
+  </si>
+  <si>
+    <t>TF-ICON</t>
+  </si>
+  <si>
+    <t>DDPM Inversion</t>
+  </si>
+  <si>
+    <t>Cycle Diffusion</t>
+  </si>
+  <si>
+    <t>Prompt Tuning Inversion</t>
+  </si>
+  <si>
+    <t>KV-Inversion</t>
+  </si>
+  <si>
+    <t>StyleDiffusion</t>
+  </si>
+  <si>
+    <t>LEDITS++</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>EMILIE</t>
+  </si>
+  <si>
+    <t>Fixed-point inversion</t>
+  </si>
+  <si>
+    <t>AIDI</t>
+  </si>
+  <si>
+    <t>Diffedit</t>
+  </si>
+  <si>
+    <t>Masactrl</t>
+  </si>
+  <si>
+    <t>Object-Shape Variation</t>
+  </si>
+  <si>
+    <t>Region-Aware Diffusion</t>
+  </si>
+  <si>
+    <t>Textual Inversion</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>InST</t>
+  </si>
+  <si>
+    <t>PRedItOR</t>
+  </si>
+  <si>
+    <t>DiffusionDisentanglement</t>
+  </si>
+  <si>
+    <t>Prompt-to-Prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plug-and-Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pix2Pix-Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rediffuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragdiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout control guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragondiffusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeDoM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classifier-free guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagen Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image compositing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-based editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-based inpainting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inversion work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag-Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latent manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterative editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null-Text Guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Style transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDIELR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">face age editing </t>
+  </si>
+  <si>
+    <t>optionally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE-Drag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unified framework for Instruction-based vision tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实ins p2p本身就提出了一种多条件的guidance方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruct-based object removing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image editing with visual instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(optionally)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attention manipulation (指的是对attention map做一些training free的调整)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedding optimization(指的是对一个图像或者物体，通过优化的方式获取它的text embedding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Retraining</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
-    <t>Segmentations &amp; Masks</t>
-  </si>
-  <si>
-    <t>Guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PITI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visual feature map to image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sketch-Guided DM</t>
-  </si>
-  <si>
-    <t>Sketch to image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2i-adapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ControlNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniControlNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstructPix2Pix</t>
-  </si>
-  <si>
-    <t>MoEController</t>
-  </si>
-  <si>
-    <t>Instruct-based editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOFIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstructDiffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emu Edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogPaint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inst-Inpaint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageBrush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstructAny2Pix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PbE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectStitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dreaminpainter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anydoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pair-Diffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmartBrush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIR-Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DreanBooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imagic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unitune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forgedit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayerDiffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomDiffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E4T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customedit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null-Text Inversion</t>
-  </si>
-  <si>
-    <t>EDICT</t>
-  </si>
-  <si>
-    <t>Negative Inversion</t>
-  </si>
-  <si>
-    <t>Style Diffusion</t>
-  </si>
-  <si>
-    <t>Direct Inversion</t>
-  </si>
-  <si>
-    <t>TF-ICON</t>
-  </si>
-  <si>
-    <t>DDPM Inversion</t>
-  </si>
-  <si>
-    <t>Cycle Diffusion</t>
-  </si>
-  <si>
-    <t>Prompt Tuning Inversion</t>
-  </si>
-  <si>
-    <t>KV-Inversion</t>
-  </si>
-  <si>
-    <t>StyleDiffusion</t>
-  </si>
-  <si>
-    <t>LEDITS++</t>
-  </si>
-  <si>
-    <t>FEC</t>
-  </si>
-  <si>
-    <t>EMILIE</t>
-  </si>
-  <si>
-    <t>Fixed-point inversion</t>
-  </si>
-  <si>
-    <t>AIDI</t>
-  </si>
-  <si>
-    <t>Diffedit</t>
-  </si>
-  <si>
-    <t>Masactrl</t>
-  </si>
-  <si>
-    <t>Object-Shape Variation</t>
-  </si>
-  <si>
-    <t>Region-Aware Diffusion</t>
-  </si>
-  <si>
-    <t>Textual Inversion</t>
-  </si>
-  <si>
-    <t>ELITE</t>
-  </si>
-  <si>
-    <t>InST</t>
-  </si>
-  <si>
-    <t>PRedItOR</t>
-  </si>
-  <si>
-    <t>DiffusionDisentanglement</t>
-  </si>
-  <si>
-    <t>Prompt-to-Prompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plug-and-Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pix2Pix-Zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rediffuser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FADING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragdiffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBMs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GradOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self-guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout control guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragondiffusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Universal guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FreeDoM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Classifier-free guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imagen Editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image compositing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-based editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-based inpainting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inversion work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drag-Manipulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latent manipulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iterative editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProxEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null-Text Guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Style transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDIELR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">face age editing </t>
-  </si>
-  <si>
-    <t>optionally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDE-Drag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guidance work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stroke to image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout to image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guidance framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FoI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unified framework for Instruction-based vision tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实ins p2p本身就提出了一种多条件的guidance方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instruct-based object removing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image editing with visual instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(optionally)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attention manipulation (指的是对attention map做一些training free的调整)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embedding optimization(指的是对一个图像或者物体，通过优化的方式获取它的text embedding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VQDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DALL-E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eDiff-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR3+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit-DDPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR-SDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super-resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real world super-resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image to image translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework for restoration tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual feature map to image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual feature map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate representations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRDiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResDiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffusion autoencoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak editing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,12 +1020,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD026EF-406A-AA42-84F0-4D22E7F53699}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -918,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDD8D6F-B891-B745-9B26-F57FF5B8522B}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -933,48 +1256,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -997,10 +1320,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1023,10 +1346,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1049,10 +1372,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1075,10 +1398,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1101,10 +1424,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1127,10 +1450,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1151,15 +1474,15 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1182,10 +1505,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1203,15 +1526,15 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1234,10 +1557,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1260,10 +1583,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1286,10 +1609,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1312,10 +1635,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1338,10 +1661,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1364,19 +1687,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>117</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1390,10 +1713,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1416,10 +1739,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1442,10 +1765,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1454,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1468,10 +1791,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1494,10 +1817,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1520,10 +1843,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1546,10 +1869,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1572,10 +1895,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1598,10 +1921,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1624,10 +1947,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1650,10 +1973,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1676,10 +1999,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1702,10 +2025,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1728,10 +2051,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1754,10 +2077,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1780,10 +2103,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1806,10 +2129,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1832,10 +2155,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1858,10 +2181,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1884,10 +2207,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1910,10 +2233,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1936,10 +2259,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1962,10 +2285,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1988,10 +2311,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2014,10 +2337,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2040,10 +2363,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2066,10 +2389,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2092,10 +2415,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2118,10 +2441,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2144,10 +2467,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2170,10 +2493,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2196,10 +2519,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2222,10 +2545,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2248,10 +2571,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2277,10 +2600,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2298,15 +2621,15 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2329,10 +2652,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2355,10 +2678,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2381,11 +2704,11 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
         <v>101</v>
       </c>
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
@@ -2402,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2436,10 +2759,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2457,15 +2780,15 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2488,10 +2811,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2514,10 +2837,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2540,10 +2863,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2566,10 +2889,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2592,10 +2915,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2618,10 +2941,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2644,10 +2967,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2670,10 +2993,10 @@
     </row>
     <row r="67" spans="1:12" ht="17" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2696,10 +3019,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2722,10 +3045,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2748,10 +3071,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2774,10 +3097,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2800,10 +3123,10 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2826,10 +3149,10 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2852,10 +3175,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2864,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2881,10 +3204,10 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2893,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2907,10 +3230,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2933,10 +3256,10 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2959,10 +3282,10 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2971,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -2982,10 +3305,10 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3008,10 +3331,10 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3034,10 +3357,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3060,10 +3383,10 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3086,10 +3409,10 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3112,10 +3435,10 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3136,15 +3459,15 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3165,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
